--- a/content/payroll-03-2023.xlsx
+++ b/content/payroll-03-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\kali-linux\home\him\TMA\project\tma-app\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3FFF3D-7D2B-4B43-A9C1-33ED5B6127AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1166A5-48B9-49D9-9F24-F8C26BE01360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,13 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PAYROLL!$A$2:$Y$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PAYROLL!$A$3:$Z$56</definedName>
     <definedName name="Akun">[1]SAA!$D$10:$D$102</definedName>
     <definedName name="AkunA">#REF!</definedName>
     <definedName name="Daftar">[1]SAA!$H$10:$H$102</definedName>
-    <definedName name="data_pyr" localSheetId="0">PAYROLL!$A$2:$AF$2675</definedName>
+    <definedName name="data_pyr" localSheetId="0">PAYROLL!$A$3:$AG$2676</definedName>
     <definedName name="data_pyr">#REF!</definedName>
-    <definedName name="data_pyr1">PAYROLL!$A$2:$AF$2675</definedName>
+    <definedName name="data_pyr1">PAYROLL!$A$3:$AG$2676</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1">#REF!,#REF!</definedName>
     <definedName name="idbaru">#REF!</definedName>
     <definedName name="idpajak">#REF!</definedName>
@@ -36,7 +36,7 @@
     <definedName name="Nama">#REF!</definedName>
     <definedName name="NamaAkun">[1]SAA!$C$10:$D$102</definedName>
     <definedName name="Nomor">[1]SAA!$C$10:$C$102</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PAYROLL!$A$1:$W$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PAYROLL!$A$1:$X$50</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">PAYROLL!$A:$D</definedName>
     <definedName name="Saldo">[1]SAA!$D$10:$E$102</definedName>
     <definedName name="Statement_Date">'[2]Income Statement'!#REF!</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>NIK</t>
   </si>
@@ -122,12 +122,6 @@
     <t>GAPOK &amp; Tj TETAP</t>
   </si>
   <si>
-    <t>Tunj Proyek</t>
-  </si>
-  <si>
-    <t>Tunj On Site</t>
-  </si>
-  <si>
     <t>THR</t>
   </si>
   <si>
@@ -158,22 +152,97 @@
     <t>TMA-05-0821</t>
   </si>
   <si>
-    <t>Abdul</t>
-  </si>
-  <si>
     <t>Status Pajak</t>
   </si>
   <si>
-    <t>Tunj Perjalanan Dinas</t>
-  </si>
-  <si>
     <t>Tunjangan Sarana</t>
   </si>
   <si>
-    <t>tmainfo2010@gmail.com</t>
-  </si>
-  <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>rohimfikri@gmail.com</t>
+  </si>
+  <si>
+    <t>INFO-1</t>
+  </si>
+  <si>
+    <t>INFO-2</t>
+  </si>
+  <si>
+    <t>INFO-3</t>
+  </si>
+  <si>
+    <t>INFO-4</t>
+  </si>
+  <si>
+    <t>INFO-5</t>
+  </si>
+  <si>
+    <t>INFO-8</t>
+  </si>
+  <si>
+    <t>INFO-7</t>
+  </si>
+  <si>
+    <t>INFO-6</t>
+  </si>
+  <si>
+    <t>TOTAL+</t>
+  </si>
+  <si>
+    <t>TOTAL-</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>INFO-9</t>
+  </si>
+  <si>
+    <t>Tunjangan Proyek</t>
+  </si>
+  <si>
+    <t>Tunjangan On Site</t>
+  </si>
+  <si>
+    <t>Tunjangan Perjalanan Dinas</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>INFO-10</t>
+  </si>
+  <si>
+    <t>BPJS Ketenagakerjaan</t>
+  </si>
+  <si>
+    <t>BPJS Kesehatan</t>
+  </si>
+  <si>
+    <t>Lain-lain</t>
+  </si>
+  <si>
+    <t>FOOT-1</t>
+  </si>
+  <si>
+    <t>FOOT-2</t>
+  </si>
+  <si>
+    <t>BENEFIT~3</t>
+  </si>
+  <si>
+    <t>Lembur~jam</t>
+  </si>
+  <si>
+    <t>Perjalanan Dinas~hari</t>
+  </si>
+  <si>
+    <t>Ahmad Z</t>
+  </si>
+  <si>
+    <t>Budi Z</t>
   </si>
 </sst>
 </file>
@@ -185,13 +254,13 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yy"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0\ ;&quot; (&quot;#,##0\);&quot; - &quot;;@\ "/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ ;&quot; (&quot;#,##0.00\);&quot; -&quot;#\ ;@\ "/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0\ ;&quot; (&quot;#,##0\);&quot; - &quot;;@\ "/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ ;&quot; (&quot;#,##0.00\);&quot; -&quot;#\ ;@\ "/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -383,8 +452,15 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,8 +635,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -690,6 +772,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -723,16 +868,16 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -741,7 +886,7 @@
     <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -769,40 +914,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -816,21 +933,76 @@
     </xf>
     <xf numFmtId="41" fontId="31" fillId="0" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="10" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="15" fillId="0" borderId="10" xfId="56" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="10" xfId="29" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="10" xfId="29" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="76">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2406,1902 +2578,2099 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF72"/>
+  <dimension ref="A1:AI73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="W36" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF55" sqref="AF55"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8" style="37" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
+    <row r="1" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21">
         <v>1</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="22">
         <f>+A1+1</f>
         <v>2</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="22">
         <f>+B1+1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="22">
         <f>+C1+1</f>
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="e">
+      <c r="E1" s="22" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="F1" s="6" t="e">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="e">
         <f>+E1+1</f>
         <v>#REF!</v>
       </c>
-      <c r="G1" s="6" t="e">
+      <c r="H1" s="22" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="H1" s="6" t="e">
-        <f>+G1+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I1" s="6" t="e">
+      <c r="I1" s="22" t="e">
         <f>+H1+1</f>
         <v>#REF!</v>
       </c>
-      <c r="J1" s="6" t="e">
+      <c r="J1" s="22" t="e">
+        <f>+I1+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K1" s="22" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="K1" s="6" t="e">
-        <f>+J1+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="e">
+      <c r="L1" s="22" t="e">
         <f>+K1+1</f>
         <v>#REF!</v>
       </c>
-      <c r="O1" s="6" t="e">
-        <f>+N1+1</f>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22" t="e">
+        <f>+L1+1</f>
         <v>#REF!</v>
       </c>
-      <c r="P1" s="6" t="e">
+      <c r="P1" s="22" t="e">
         <f>+O1+1</f>
         <v>#REF!</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="e">
+      <c r="Q1" s="22" t="e">
+        <f>+P1+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="S1" s="6" t="e">
+      <c r="T1" s="22" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="T1" s="6" t="e">
-        <f>+S1+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U1" s="6" t="e">
+      <c r="U1" s="22" t="e">
         <f>+T1+1</f>
         <v>#REF!</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6" t="e">
+      <c r="V1" s="22" t="e">
+        <f>+U1+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6" t="e">
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="Z1" s="6" t="e">
+      <c r="AA1" s="22" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="AA1" s="6" t="e">
+      <c r="AB1" s="22" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="AB1" s="6" t="e">
+      <c r="AC1" s="22" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6" t="e">
-        <f>+Y1+1</f>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22" t="e">
+        <f>+Z1+1</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="23" t="str">
+        <f>CONCATENATE("+","A",". ","Gaji Pokok","~","1")</f>
+        <v>+A. Gaji Pokok~1</v>
+      </c>
+      <c r="J2" s="32" t="str">
+        <f>CONCATENATE("+","B",". ","Tunjangan Tidak Tetap","~","5")</f>
+        <v>+B. Tunjangan Tidak Tetap~5</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="32" t="str">
+        <f>CONCATENATE("+","C",". ","Lain-lain","~","4")</f>
+        <v>+C. Lain-lain~4</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="32" t="str">
+        <f>CONCATENATE("-","D",". ","Pengurangan","~","4")</f>
+        <v>-D. Pengurangan~4</v>
+      </c>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="36"/>
+    </row>
+    <row r="3" spans="1:35" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="H3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF3" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH3" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44958</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="J4" s="6">
+        <v>300000</v>
+      </c>
+      <c r="K4" s="6">
+        <v>250000</v>
+      </c>
+      <c r="L4" s="6">
+        <v>300000</v>
+      </c>
+      <c r="M4" s="6">
+        <v>150000</v>
+      </c>
+      <c r="N4" s="6">
+        <v>500000</v>
+      </c>
+      <c r="O4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>45000</v>
+      </c>
+      <c r="R4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="S4" s="8">
+        <f>SUM(I4:R4)</f>
+        <v>2845000</v>
+      </c>
+      <c r="T4" s="9">
+        <v>200000</v>
+      </c>
+      <c r="U4" s="9">
+        <v>34000</v>
+      </c>
+      <c r="V4" s="7">
+        <f>+Q4</f>
+        <v>45000</v>
+      </c>
+      <c r="W4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="X4" s="9">
+        <f>SUM(T4:W4)</f>
+        <v>379000</v>
+      </c>
+      <c r="Y4" s="10">
+        <f>+S4-X4</f>
+        <v>2466000</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="AF4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="12" t="s">
+      <c r="C5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44958</v>
+      </c>
+      <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="U2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="3" t="s">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="6">
+        <v>300000</v>
+      </c>
+      <c r="K5" s="6">
+        <v>250000</v>
+      </c>
+      <c r="L5" s="6">
+        <v>300000</v>
+      </c>
+      <c r="M5" s="6">
+        <v>150000</v>
+      </c>
+      <c r="N5" s="6">
+        <v>500000</v>
+      </c>
+      <c r="O5" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P5" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>45000</v>
+      </c>
+      <c r="R5" s="7">
+        <v>100000</v>
+      </c>
+      <c r="S5" s="8">
+        <f>SUM(I5:R5)</f>
+        <v>2845000</v>
+      </c>
+      <c r="T5" s="9">
+        <v>200000</v>
+      </c>
+      <c r="U5" s="9">
+        <v>34000</v>
+      </c>
+      <c r="V5" s="7">
+        <f>+Q5</f>
+        <v>45000</v>
+      </c>
+      <c r="W5" s="7">
+        <v>100000</v>
+      </c>
+      <c r="X5" s="9">
+        <f>SUM(T5:W5)</f>
+        <v>379000</v>
+      </c>
+      <c r="Y5" s="10">
+        <f>+S5-X5</f>
+        <v>2466000</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="15">
-        <v>44957</v>
-      </c>
-      <c r="E3" s="5">
-        <v>5</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="16">
-        <v>1000000</v>
-      </c>
-      <c r="I3" s="16">
-        <v>300000</v>
-      </c>
-      <c r="J3" s="16">
-        <v>250000</v>
-      </c>
-      <c r="K3" s="16">
-        <v>300000</v>
-      </c>
-      <c r="L3" s="16">
-        <v>150000</v>
-      </c>
-      <c r="M3" s="16">
-        <v>500000</v>
-      </c>
-      <c r="N3" s="17">
-        <v>100000</v>
-      </c>
-      <c r="O3" s="17">
-        <v>100000</v>
-      </c>
-      <c r="P3" s="17">
-        <v>45000</v>
-      </c>
-      <c r="Q3" s="17">
-        <v>100000</v>
-      </c>
-      <c r="R3" s="18">
-        <f>SUM(H3:Q3)</f>
-        <v>2845000</v>
-      </c>
-      <c r="S3" s="19">
-        <v>200000</v>
-      </c>
-      <c r="T3" s="19">
-        <v>34000</v>
-      </c>
-      <c r="U3" s="17">
-        <f>+P3</f>
-        <v>45000</v>
-      </c>
-      <c r="V3" s="17">
-        <v>100000</v>
-      </c>
-      <c r="W3" s="19">
-        <f>SUM(S3:V3)</f>
-        <v>379000</v>
-      </c>
-      <c r="X3" s="20">
-        <f>+R3-W3</f>
-        <v>2466000</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF3" s="4"/>
-    </row>
-    <row r="4" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="15"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AF4" s="4"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C5" s="6"/>
-      <c r="D5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AF5" s="4"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C6" s="6"/>
-      <c r="D6" s="15"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AF6" s="4"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C7" s="6"/>
-      <c r="D7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AF8" s="4"/>
-    </row>
-    <row r="9" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="15"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AF9" s="4"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D10" s="15"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D11" s="15"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AF11" s="4"/>
-    </row>
-    <row r="12" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-    </row>
-    <row r="13" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="15"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D14" s="15"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AF14" s="4"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D15" s="15"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-    </row>
-    <row r="16" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="15"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AF16" s="4"/>
-    </row>
-    <row r="17" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AF17" s="4"/>
-    </row>
-    <row r="18" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AF18" s="4"/>
-    </row>
-    <row r="19" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="15"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AF19" s="4"/>
-    </row>
-    <row r="20" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="15"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AF20" s="4"/>
-    </row>
-    <row r="21" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="15"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AF21" s="4"/>
-    </row>
-    <row r="22" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="15"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AF22" s="4"/>
-    </row>
-    <row r="23" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="15"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AF23" s="4"/>
-    </row>
-    <row r="24" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AF24" s="4"/>
-    </row>
-    <row r="25" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="15"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AF25" s="4"/>
-    </row>
-    <row r="26" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="15"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
-      <c r="AF26" s="4"/>
-    </row>
-    <row r="27" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="15"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AF27" s="4"/>
-    </row>
-    <row r="28" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="15"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AF28" s="4"/>
-    </row>
-    <row r="29" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="15"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
-      <c r="AF29" s="4"/>
-    </row>
-    <row r="30" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="15"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AF30" s="4"/>
-    </row>
-    <row r="31" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="15"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AF31" s="4"/>
-    </row>
-    <row r="32" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="15"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AF32" s="4"/>
-    </row>
-    <row r="33" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="15"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AF33" s="4"/>
-    </row>
-    <row r="34" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="15"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AF34" s="4"/>
-    </row>
-    <row r="35" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="15"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
-      <c r="AF35" s="4"/>
-    </row>
-    <row r="36" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="15"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AF36" s="4"/>
-    </row>
-    <row r="37" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="15"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AF37" s="4"/>
-    </row>
-    <row r="38" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="15"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AF38" s="4"/>
-    </row>
-    <row r="39" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="15"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AF39" s="4"/>
-    </row>
-    <row r="40" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="15"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AF40" s="4"/>
-    </row>
-    <row r="41" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="15"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AF41" s="4"/>
-    </row>
-    <row r="42" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="15"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
-      <c r="AF42" s="4"/>
-    </row>
-    <row r="43" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="15"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AF43" s="4"/>
-    </row>
-    <row r="44" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="15"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
-      <c r="AF44" s="4"/>
-    </row>
-    <row r="45" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="15"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
-      <c r="AD45" s="21"/>
-      <c r="AF45" s="4"/>
-    </row>
-    <row r="46" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="15"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
-      <c r="AF46" s="4"/>
-    </row>
-    <row r="47" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="15"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21"/>
-      <c r="AF47" s="4"/>
-    </row>
-    <row r="48" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="15"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="21"/>
-      <c r="AB48" s="21"/>
-      <c r="AC48" s="21"/>
-      <c r="AD48" s="21"/>
-      <c r="AF48" s="4"/>
-    </row>
-    <row r="49" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="15"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="21"/>
-      <c r="AC49" s="21"/>
-      <c r="AD49" s="21"/>
-      <c r="AF49" s="4"/>
-    </row>
-    <row r="50" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="15"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="20"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="21"/>
-      <c r="AF50" s="4"/>
-    </row>
-    <row r="51" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="15"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="19"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
-      <c r="AB51" s="21"/>
-      <c r="AC51" s="21"/>
-      <c r="AD51" s="21"/>
-      <c r="AF51" s="4"/>
-    </row>
-    <row r="52" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="15"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
-      <c r="AB52" s="21"/>
-      <c r="AC52" s="21"/>
-      <c r="AD52" s="21"/>
-      <c r="AF52" s="4"/>
-    </row>
-    <row r="53" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="15"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
-      <c r="AB53" s="21"/>
-      <c r="AC53" s="21"/>
-      <c r="AD53" s="21"/>
-      <c r="AF53" s="4"/>
-    </row>
-    <row r="54" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="15"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="21"/>
-      <c r="AD54" s="21"/>
-      <c r="AF54" s="4"/>
-    </row>
-    <row r="55" spans="3:32" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="S56" s="23"/>
-      <c r="T56" s="24"/>
-    </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="N57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-      <c r="X57" s="25"/>
-    </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="D58" s="26"/>
-      <c r="I58" s="27"/>
-      <c r="N58" s="26"/>
-    </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="D59" s="26"/>
-      <c r="I59" s="27"/>
-      <c r="N59" s="26"/>
-    </row>
-    <row r="60" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="D60" s="26"/>
-      <c r="I60" s="28"/>
-      <c r="N60" s="26"/>
-    </row>
-    <row r="61" spans="3:32" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C61" s="29"/>
-      <c r="D61" s="26"/>
-      <c r="I61" s="27"/>
-      <c r="N61" s="26"/>
-    </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="I62" s="27"/>
-      <c r="N62" s="26"/>
-    </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="I63" s="27"/>
-      <c r="N63" s="26"/>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="I64" s="27"/>
-      <c r="N64" s="30"/>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I65" s="27"/>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I66" s="27"/>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I67" s="27"/>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I68" s="27"/>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I69" s="27"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I70" s="27"/>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I71" s="27"/>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I72" s="27"/>
+      <c r="AE5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AG6" s="38"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AG7" s="38"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AG8" s="38"/>
+    </row>
+    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AG9" s="38"/>
+    </row>
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AG10" s="38"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AG12" s="38"/>
+    </row>
+    <row r="13" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+    </row>
+    <row r="14" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AG15" s="38"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+    </row>
+    <row r="17" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AG17" s="38"/>
+    </row>
+    <row r="18" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AG18" s="38"/>
+    </row>
+    <row r="19" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AG19" s="38"/>
+    </row>
+    <row r="20" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AG20" s="38"/>
+    </row>
+    <row r="21" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AG21" s="38"/>
+    </row>
+    <row r="22" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AG22" s="38"/>
+    </row>
+    <row r="23" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AG23" s="38"/>
+    </row>
+    <row r="24" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AG24" s="38"/>
+    </row>
+    <row r="25" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AG25" s="38"/>
+    </row>
+    <row r="26" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AG26" s="38"/>
+    </row>
+    <row r="27" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AG27" s="38"/>
+    </row>
+    <row r="28" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AG28" s="38"/>
+    </row>
+    <row r="29" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AG29" s="38"/>
+    </row>
+    <row r="30" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AG30" s="38"/>
+    </row>
+    <row r="31" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="5"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AG31" s="38"/>
+    </row>
+    <row r="32" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="5"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AG32" s="38"/>
+    </row>
+    <row r="33" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AG33" s="38"/>
+    </row>
+    <row r="34" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AG34" s="38"/>
+    </row>
+    <row r="35" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="5"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AG35" s="38"/>
+    </row>
+    <row r="36" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="5"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AG36" s="38"/>
+    </row>
+    <row r="37" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="5"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AG37" s="38"/>
+    </row>
+    <row r="38" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="5"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AG38" s="38"/>
+    </row>
+    <row r="39" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="5"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AG39" s="38"/>
+    </row>
+    <row r="40" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="5"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AG40" s="38"/>
+    </row>
+    <row r="41" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="5"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AG41" s="38"/>
+    </row>
+    <row r="42" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="5"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AG42" s="38"/>
+    </row>
+    <row r="43" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="5"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AG43" s="38"/>
+    </row>
+    <row r="44" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="5"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AG44" s="38"/>
+    </row>
+    <row r="45" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="5"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AG45" s="38"/>
+    </row>
+    <row r="46" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="5"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AG46" s="38"/>
+    </row>
+    <row r="47" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="5"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AG47" s="38"/>
+    </row>
+    <row r="48" spans="4:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="5"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AG48" s="38"/>
+    </row>
+    <row r="49" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="5"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AG49" s="38"/>
+    </row>
+    <row r="50" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="5"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AG50" s="38"/>
+    </row>
+    <row r="51" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="5"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AG51" s="38"/>
+    </row>
+    <row r="52" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="5"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AG52" s="38"/>
+    </row>
+    <row r="53" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="5"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AG53" s="38"/>
+    </row>
+    <row r="54" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="5"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AG54" s="38"/>
+    </row>
+    <row r="55" spans="3:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="5"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AG55" s="38"/>
+    </row>
+    <row r="56" spans="3:33" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="T57" s="13"/>
+      <c r="U57" s="14"/>
+    </row>
+    <row r="58" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="O58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
+    </row>
+    <row r="59" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D59" s="16"/>
+      <c r="J59" s="17"/>
+      <c r="O59" s="16"/>
+    </row>
+    <row r="60" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D60" s="16"/>
+      <c r="J60" s="17"/>
+      <c r="O60" s="16"/>
+    </row>
+    <row r="61" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D61" s="16"/>
+      <c r="J61" s="18"/>
+      <c r="O61" s="16"/>
+    </row>
+    <row r="62" spans="3:33" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C62" s="19"/>
+      <c r="D62" s="16"/>
+      <c r="J62" s="17"/>
+      <c r="O62" s="16"/>
+    </row>
+    <row r="63" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="J63" s="17"/>
+      <c r="O63" s="16"/>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="J64" s="17"/>
+      <c r="O64" s="16"/>
+    </row>
+    <row r="65" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J65" s="17"/>
+      <c r="O65" s="20"/>
+    </row>
+    <row r="66" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J66" s="17"/>
+    </row>
+    <row r="67" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J67" s="17"/>
+    </row>
+    <row r="68" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J68" s="17"/>
+    </row>
+    <row r="69" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J71" s="17"/>
+    </row>
+    <row r="72" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J72" s="17"/>
+    </row>
+    <row r="73" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J73" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Y55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:Z56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="4">
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="AF2:AH2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AD3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AE4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AE5" r:id="rId2" xr:uid="{2352DBE8-9201-45A2-816C-955DC1930331}"/>
   </hyperlinks>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="2.8740157480314963" bottom="0.43307086614173229" header="0.15748031496062992" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="80" fitToWidth="2" fitToHeight="2" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="80" fitToWidth="2" fitToHeight="2" orientation="landscape" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>